--- a/Шаблон Счета на оплату ДК.xlsx
+++ b/Шаблон Счета на оплату ДК.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>-----------------------------------------------------------------------------------------------------------------</t>
   </si>
@@ -87,6 +87,15 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>БИК 044525225 (ПАО СБЕРБАНК)</t>
+  </si>
+  <si>
+    <t>ИНН 9715357887 КПП 771501001                         40702810338000156966</t>
+  </si>
+  <si>
+    <t>ООО "ДЕЛОВОЙ КЛУБ"</t>
   </si>
 </sst>
 </file>
@@ -414,7 +423,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF9E3AA-B6A9-46F6-9F17-1351F6E48370}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BF9E3AA-B6A9-46F6-9F17-1351F6E48370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -456,9 +465,9 @@
       <sheetName val="Шаблон ПД жкх"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
         <row r="3">
           <cell r="B3" t="str">
             <v>ООО "ДЕЛОВОЙ КЛУБ"</v>
@@ -490,10 +499,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -789,7 +798,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -811,9 +820,8 @@
       <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16" t="str">
-        <f>Name</f>
-        <v>ООО "ДЕЛОВОЙ КЛУБ"</v>
+      <c r="C2" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,9 +834,8 @@
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="15" t="str">
-        <f>"  ИНН "&amp;INN&amp;" КПП "&amp;KPP&amp;"                         "&amp;PersonalAcc</f>
-        <v xml:space="preserve">  ИНН 9715357887 КПП 771501001                         40702810338000156966</v>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,9 +848,8 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="13" t="str">
-        <f>"БИК "&amp;BIC&amp;" ("&amp;BankName&amp;")"</f>
-        <v>БИК 044525225 (ПАО СБЕРБАНК)</v>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -905,9 +911,8 @@
       <c r="B15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="16" t="str">
-        <f>C2</f>
-        <v>ООО "ДЕЛОВОЙ КЛУБ"</v>
+      <c r="C15" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,9 +925,8 @@
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="15" t="str">
-        <f>C4</f>
-        <v xml:space="preserve">  ИНН 9715357887 КПП 771501001                         40702810338000156966</v>
+      <c r="C17" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -935,9 +939,8 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="13" t="str">
-        <f>C6</f>
-        <v>БИК 044525225 (ПАО СБЕРБАНК)</v>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
